--- a/Team-Data/2012-13/1-9-2012-13.xlsx
+++ b/Team-Data/2012-13/1-9-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" t="n">
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588</v>
+        <v>0.606</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
@@ -684,76 +751,76 @@
         <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K2" t="n">
         <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>23.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="P2" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.708</v>
+        <v>0.711</v>
       </c>
       <c r="R2" t="n">
         <v>9.9</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V2" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
@@ -762,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -795,19 +862,19 @@
         <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
         <v>14</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -819,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>48.9</v>
@@ -872,31 +939,31 @@
         <v>0.462</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.342</v>
+        <v>0.345</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="R3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
         <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
         <v>23.2</v>
@@ -905,7 +972,7 @@
         <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
         <v>3.9</v>
@@ -914,19 +981,19 @@
         <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
@@ -935,13 +1002,13 @@
         <v>17</v>
       </c>
       <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
         <v>16</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
@@ -977,25 +1044,25 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>1.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1123,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>27</v>
@@ -1132,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM4" t="n">
         <v>8</v>
@@ -1147,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>10</v>
@@ -1162,7 +1229,7 @@
         <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
@@ -1183,7 +1250,7 @@
         <v>18</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.265</v>
+        <v>0.273</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J5" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T5" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U5" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,7 +1342,7 @@
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
         <v>19.5</v>
@@ -1284,31 +1351,31 @@
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-7.8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF5" t="n">
         <v>26</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1317,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
@@ -1329,25 +1396,25 @@
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -1394,52 +1461,52 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.576</v>
+        <v>0.594</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.36</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.795</v>
+        <v>0.798</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>43.3</v>
@@ -1451,28 +1518,28 @@
         <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
         <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1490,10 +1557,10 @@
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1517,25 +1584,25 @@
         <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
         <v>12</v>
@@ -1547,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.243</v>
+        <v>0.222</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1594,43 +1661,43 @@
         <v>35.2</v>
       </c>
       <c r="J7" t="n">
-        <v>84.3</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="L7" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M7" t="n">
         <v>21.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.36</v>
+        <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P7" t="n">
         <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R7" t="n">
         <v>13.1</v>
       </c>
       <c r="S7" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T7" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V7" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W7" t="n">
         <v>8.1</v>
@@ -1642,22 +1709,22 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.3</v>
+        <v>-5.9</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
         <v>29</v>
@@ -1678,22 +1745,22 @@
         <v>29</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1708,10 +1775,10 @@
         <v>30</v>
       </c>
       <c r="AV7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AW7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>25</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H8" t="n">
         <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J8" t="n">
         <v>83.59999999999999</v>
@@ -1785,28 +1852,28 @@
         <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U8" t="n">
         <v>21.7</v>
@@ -1815,37 +1882,37 @@
         <v>15.1</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1854,10 +1921,10 @@
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL8" t="n">
         <v>14</v>
@@ -1866,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1890,13 +1957,13 @@
         <v>17</v>
       </c>
       <c r="AV8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>7</v>
@@ -1908,7 +1975,7 @@
         <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,61 +2025,61 @@
         <v>39.4</v>
       </c>
       <c r="J9" t="n">
-        <v>84.90000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="N9" t="n">
         <v>0.33</v>
       </c>
       <c r="O9" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>25.3</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.677</v>
+        <v>0.679</v>
       </c>
       <c r="R9" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S9" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T9" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U9" t="n">
         <v>23.4</v>
       </c>
       <c r="V9" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X9" t="n">
         <v>6.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="n">
         <v>2.6</v>
@@ -2021,13 +2088,13 @@
         <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>14</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>23</v>
@@ -2036,22 +2103,22 @@
         <v>2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2063,31 +2130,31 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>6</v>
@@ -2263,10 +2330,10 @@
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.647</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.456</v>
@@ -2331,28 +2398,28 @@
         <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="R11" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S11" t="n">
         <v>34</v>
       </c>
       <c r="T11" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U11" t="n">
         <v>22.7</v>
@@ -2364,31 +2431,31 @@
         <v>7.1</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
         <v>21.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.9</v>
+        <v>101.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
@@ -2397,13 +2464,13 @@
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2421,10 +2488,10 @@
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2445,13 +2512,13 @@
         <v>27</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.583</v>
+        <v>0.6</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L12" t="n">
         <v>9.9</v>
@@ -2516,13 +2583,13 @@
         <v>27.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
-        <v>19.4</v>
+        <v>19.7</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q12" t="n">
         <v>0.763</v>
@@ -2531,16 +2598,16 @@
         <v>10.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="V12" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>8.800000000000001</v>
@@ -2549,40 +2616,40 @@
         <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z12" t="n">
         <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>106.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,13 +2661,13 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
@@ -2609,13 +2676,13 @@
         <v>21</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2630,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -2746,31 +2813,31 @@
         <v>1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2791,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2812,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.778</v>
+        <v>0.771</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2874,37 +2941,37 @@
         <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O14" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P14" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.711</v>
+        <v>0.713</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S14" t="n">
         <v>30.5</v>
       </c>
       <c r="T14" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W14" t="n">
         <v>10.8</v>
@@ -2916,19 +2983,19 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2970,19 +3037,19 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2997,13 +3064,13 @@
         <v>25</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>8</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -3032,25 +3099,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>0.429</v>
+        <v>0.441</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.454</v>
@@ -3062,55 +3129,55 @@
         <v>25.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.355</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="P15" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="S15" t="n">
         <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U15" t="n">
         <v>21.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3122,19 +3189,19 @@
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
@@ -3152,31 +3219,31 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
         <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
         <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0.697</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.439</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
         <v>14.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.359</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R16" t="n">
         <v>13.3</v>
@@ -3265,22 +3332,22 @@
         <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
@@ -3292,16 +3359,16 @@
         <v>5.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -3310,10 +3377,10 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,34 +3404,34 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>4.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3507,13 +3574,13 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -3578,22 +3645,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.529</v>
+        <v>0.515</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J18" t="n">
         <v>85.8</v>
@@ -3602,13 +3669,13 @@
         <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.341</v>
       </c>
       <c r="O18" t="n">
         <v>16</v>
@@ -3620,25 +3687,25 @@
         <v>0.748</v>
       </c>
       <c r="R18" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T18" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U18" t="n">
         <v>21.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
         <v>4.2</v>
@@ -3647,25 +3714,25 @@
         <v>19.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.5</v>
+        <v>96.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.7</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
@@ -3680,31 +3747,31 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>18</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>17</v>
-      </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU18" t="n">
         <v>15</v>
@@ -3719,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ18" t="n">
         <v>10</v>
@@ -3728,7 +3795,7 @@
         <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.516</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="J19" t="n">
-        <v>82.5</v>
+        <v>82.8</v>
       </c>
       <c r="K19" t="n">
         <v>0.431</v>
       </c>
       <c r="L19" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3</v>
+        <v>0.301</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T19" t="n">
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="U19" t="n">
         <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>7.7</v>
@@ -3829,13 +3896,13 @@
         <v>18</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
@@ -3844,19 +3911,19 @@
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3865,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3874,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3883,16 +3950,16 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>14</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>18</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
         <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.286</v>
+        <v>0.265</v>
       </c>
       <c r="H20" t="n">
         <v>48.6</v>
@@ -3960,10 +4027,10 @@
         <v>35.3</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
@@ -3972,82 +4039,82 @@
         <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.375</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V20" t="n">
         <v>14.3</v>
       </c>
       <c r="W20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.1</v>
+        <v>-5.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
@@ -4065,31 +4132,31 @@
         <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT20" t="n">
         <v>23</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>5.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4220,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
         <v>12</v>
@@ -4238,10 +4305,10 @@
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>22</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.771</v>
+        <v>0.765</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J22" t="n">
         <v>78.3</v>
@@ -4330,13 +4397,13 @@
         <v>0.478</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M22" t="n">
         <v>19.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.4</v>
+        <v>0.395</v>
       </c>
       <c r="O22" t="n">
         <v>22.9</v>
@@ -4351,19 +4418,19 @@
         <v>10.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>7.3</v>
@@ -4372,19 +4439,19 @@
         <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB22" t="n">
         <v>105.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,7 +4466,7 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4408,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
         <v>1</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>16</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4450,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>9</v>
@@ -4459,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.343</v>
+        <v>0.353</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J23" t="n">
-        <v>82.90000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.345</v>
       </c>
       <c r="O23" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="P23" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R23" t="n">
         <v>10.4</v>
@@ -4542,40 +4609,40 @@
         <v>22.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>5.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
         <v>4.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC23" t="n">
         <v>-3.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>14</v>
@@ -4584,16 +4651,16 @@
         <v>8</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN23" t="n">
         <v>21</v>
@@ -4614,13 +4681,13 @@
         <v>7</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4629,16 +4696,16 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.405</v>
+        <v>0.417</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>83.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M24" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
         <v>12.6</v>
@@ -4709,43 +4776,43 @@
         <v>17.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="R24" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="V24" t="n">
         <v>12.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X24" t="n">
         <v>5.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
         <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.2</v>
+        <v>92.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.5</v>
+        <v>-4.1</v>
       </c>
       <c r="AD24" t="n">
         <v>2</v>
@@ -4763,22 +4830,22 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM24" t="n">
         <v>22</v>
       </c>
-      <c r="AL24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>23</v>
-      </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,28 +4860,28 @@
         <v>20</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
         <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.324</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J25" t="n">
         <v>84.8</v>
       </c>
       <c r="K25" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M25" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.326</v>
+        <v>0.329</v>
       </c>
       <c r="O25" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P25" t="n">
         <v>19.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S25" t="n">
         <v>28.9</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="U25" t="n">
         <v>22</v>
       </c>
       <c r="V25" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
         <v>5.7</v>
@@ -4918,22 +4985,22 @@
         <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.90000000000001</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="AD25" t="n">
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>26</v>
@@ -4948,16 +5015,16 @@
         <v>7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="n">
         <v>28</v>
@@ -4969,10 +5036,10 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR25" t="n">
         <v>18</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>16</v>
       </c>
       <c r="AS25" t="n">
         <v>28</v>
@@ -4987,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4996,16 +5063,16 @@
         <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -5112,28 +5179,28 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5157,7 +5224,7 @@
         <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>22</v>
@@ -5175,7 +5242,7 @@
         <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>21</v>
@@ -5309,7 +5376,7 @@
         <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
@@ -5321,19 +5388,19 @@
         <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5348,28 +5415,28 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY27" t="n">
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>0.737</v>
+        <v>0.73</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.484</v>
       </c>
       <c r="L28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.389</v>
+        <v>0.386</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="R28" t="n">
         <v>8.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
@@ -5461,19 +5528,19 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB28" t="n">
         <v>104.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5503,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>4</v>
@@ -5512,16 +5579,16 @@
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
@@ -5530,16 +5597,16 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>15</v>
       </c>
       <c r="AY28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -5580,58 +5647,58 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
         <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J29" t="n">
         <v>81.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M29" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.34</v>
+        <v>0.344</v>
       </c>
       <c r="O29" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R29" t="n">
         <v>10.3</v>
       </c>
       <c r="S29" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U29" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
         <v>12.7</v>
@@ -5640,40 +5707,40 @@
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>5.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF29" t="n">
         <v>21</v>
       </c>
-      <c r="AF29" t="n">
-        <v>20</v>
-      </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>19</v>
@@ -5682,16 +5749,16 @@
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>13</v>
@@ -5703,7 +5770,7 @@
         <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5715,19 +5782,19 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
         <v>14</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.514</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J30" t="n">
         <v>82.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0.444</v>
+        <v>0.441</v>
       </c>
       <c r="L30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M30" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.365</v>
       </c>
       <c r="O30" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P30" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R30" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
         <v>42.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="V30" t="n">
         <v>15</v>
@@ -5822,7 +5889,7 @@
         <v>8.1</v>
       </c>
       <c r="X30" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
         <v>6.2</v>
@@ -5834,16 +5901,16 @@
         <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5855,19 +5922,19 @@
         <v>18</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
@@ -5876,10 +5943,10 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
@@ -5888,7 +5955,7 @@
         <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>10</v>
@@ -5897,7 +5964,7 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5912,10 +5979,10 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6061,13 +6128,13 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT31" t="n">
         <v>7</v>
@@ -6082,7 +6149,7 @@
         <v>24</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-9-2012-13</t>
+          <t>2013-01-09</t>
         </is>
       </c>
     </row>
